--- a/Liberty Data Prediction.xlsx
+++ b/Liberty Data Prediction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\Liberty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7102FA-2BBF-4B93-AFF9-219C85725B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADFB851-70A5-4F23-BE8A-1775C22EDEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="1905" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -283,13 +283,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -511,8 +510,8 @@
   </sheetPr>
   <dimension ref="A1:AJ96"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:U96"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5342,8 +5341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD94BEB9-6B35-4632-B799-2E95E33D850F}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AE21" sqref="AE21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5471,17 +5470,17 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="1">
         <v>8</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="1">
         <v>12</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="1">
         <v>2022</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>5013</v>
@@ -5563,17 +5562,17 @@
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <v>10</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="1">
         <v>2022</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>5386</v>
@@ -5655,17 +5654,17 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="1">
         <v>14</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="1">
         <v>2022</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>5333</v>
@@ -5747,17 +5746,17 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="1">
         <v>22</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="1">
         <v>2022</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>3107</v>
@@ -5839,17 +5838,17 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>11</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="1">
         <v>18</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="1">
         <v>2022</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>6204</v>
@@ -5931,17 +5930,17 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
         <v>10</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="1">
         <v>14</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="1">
         <v>2022</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>5728</v>
@@ -6023,17 +6022,17 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <v>12</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="1">
         <v>30</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="1">
         <v>2022</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>5565</v>
@@ -6115,17 +6114,17 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="1">
         <v>25</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="1">
         <v>2022</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>6904</v>
@@ -6207,17 +6206,17 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="1">
         <v>12</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="1">
         <v>2021</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>5348</v>
@@ -6299,17 +6298,17 @@
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="1">
         <v>12</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="1">
         <v>2022</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>5890</v>
@@ -6391,17 +6390,17 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="1">
         <v>2022</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>4922</v>
@@ -6483,17 +6482,17 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="1">
         <v>2022</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>4873</v>
@@ -6575,17 +6574,17 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="1">
         <v>2</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="1">
         <v>28</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="1">
         <v>2022</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>6031</v>
@@ -6647,37 +6646,37 @@
       <c r="X14">
         <v>3.24</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Y14" s="5">
         <v>1.29</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="Z14" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AA14" s="6">
+      <c r="AA14" s="5">
         <v>1.83</v>
       </c>
-      <c r="AB14" s="6">
+      <c r="AB14" s="5">
         <v>3.23</v>
       </c>
-      <c r="AC14" s="6">
+      <c r="AC14" s="5">
         <v>0.2</v>
       </c>
-      <c r="AD14" s="6">
+      <c r="AD14" s="5">
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="1">
         <v>9</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="1">
         <v>21</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="1">
         <v>2022</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>5702</v>
@@ -6742,34 +6741,34 @@
       <c r="Y15">
         <v>3.1</v>
       </c>
-      <c r="Z15" s="6">
+      <c r="Z15" s="5">
         <v>0.51</v>
       </c>
-      <c r="AA15" s="6">
+      <c r="AA15" s="5">
         <v>1.78</v>
       </c>
-      <c r="AB15" s="6">
+      <c r="AB15" s="5">
         <v>5.42</v>
       </c>
-      <c r="AC15" s="6">
+      <c r="AC15" s="5">
         <v>0.26</v>
       </c>
-      <c r="AD15" s="6">
+      <c r="AD15" s="5">
         <v>1.42</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="1">
         <v>25</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="1">
         <v>2022</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>4411</v>
@@ -6834,34 +6833,34 @@
       <c r="Y16">
         <v>1.6</v>
       </c>
-      <c r="Z16" s="6">
+      <c r="Z16" s="5">
         <v>0.17</v>
       </c>
-      <c r="AA16" s="6">
+      <c r="AA16" s="5">
         <v>2.86</v>
       </c>
-      <c r="AB16" s="6">
+      <c r="AB16" s="5">
         <v>4.28</v>
       </c>
-      <c r="AC16" s="6">
+      <c r="AC16" s="5">
         <v>0.23</v>
       </c>
-      <c r="AD16" s="6">
+      <c r="AD16" s="5">
         <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="1">
         <v>9</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="1">
         <v>22</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="1">
         <v>2022</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>2973</v>
@@ -6926,34 +6925,34 @@
       <c r="Y17">
         <v>1.89</v>
       </c>
-      <c r="Z17" s="6">
+      <c r="Z17" s="5">
         <v>0.09</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AA17" s="5">
         <v>2.62</v>
       </c>
-      <c r="AB17" s="6">
+      <c r="AB17" s="5">
         <v>4.8099999999999996</v>
       </c>
-      <c r="AC17" s="6">
+      <c r="AC17" s="5">
         <v>0.17</v>
       </c>
-      <c r="AD17" s="6">
+      <c r="AD17" s="5">
         <v>1.66</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="1">
         <v>8</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="1">
         <v>12</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="1">
         <v>2022</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>3001</v>
@@ -7018,34 +7017,34 @@
       <c r="Y18">
         <v>2.37</v>
       </c>
-      <c r="Z18" s="6">
+      <c r="Z18" s="5">
         <v>0.23</v>
       </c>
-      <c r="AA18" s="6">
+      <c r="AA18" s="5">
         <v>1.56</v>
       </c>
-      <c r="AB18" s="6">
+      <c r="AB18" s="5">
         <v>3.96</v>
       </c>
-      <c r="AC18" s="6">
+      <c r="AC18" s="5">
         <v>0.25</v>
       </c>
-      <c r="AD18" s="6">
+      <c r="AD18" s="5">
         <v>1.66</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="1">
         <v>8</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="1">
         <v>2022</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>3000</v>
@@ -7110,34 +7109,34 @@
       <c r="Y19">
         <v>1.97</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="Z19" s="5">
         <v>0.31</v>
       </c>
-      <c r="AA19" s="6">
+      <c r="AA19" s="5">
         <v>1.52</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AB19" s="5">
         <v>3.58</v>
       </c>
-      <c r="AC19" s="6">
+      <c r="AC19" s="5">
         <v>0.22</v>
       </c>
-      <c r="AD19" s="6">
+      <c r="AD19" s="5">
         <v>1.32</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="1">
         <v>9</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="1">
         <v>12</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="1">
         <v>2022</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>5552</v>
@@ -7202,34 +7201,34 @@
       <c r="Y20">
         <v>2.89</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="Z20" s="5">
         <v>0.4</v>
       </c>
-      <c r="AA20" s="6">
+      <c r="AA20" s="5">
         <v>5.92</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AB20" s="5">
         <v>5.8</v>
       </c>
-      <c r="AC20" s="6">
+      <c r="AC20" s="5">
         <v>0.23</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AD20" s="5">
         <v>2.37</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="1">
         <v>12</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="1">
         <v>7</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="1">
         <v>2022</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>3407</v>
@@ -7294,19 +7293,19 @@
       <c r="Y21">
         <v>1.61</v>
       </c>
-      <c r="Z21" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="6">
+      <c r="Z21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="5">
         <v>1.61</v>
       </c>
-      <c r="AB21" s="6">
+      <c r="AB21" s="5">
         <v>5.01</v>
       </c>
-      <c r="AC21" s="6">
+      <c r="AC21" s="5">
         <v>0.22</v>
       </c>
-      <c r="AD21" s="6">
+      <c r="AD21" s="5">
         <v>1.0900000000000001</v>
       </c>
     </row>
